--- a/NetAgent/src/main/resources/TransactionReportbyDateRange_NA.xlsx
+++ b/NetAgent/src/main/resources/TransactionReportbyDateRange_NA.xlsx
@@ -327,7 +327,7 @@
       </c>
       <c s="4" t="inlineStr" r="D7">
         <is>
-          <t xml:space="preserve">06/07/2022</t>
+          <t xml:space="preserve">06/10/2022</t>
         </is>
       </c>
       <c s="3" t="inlineStr" r="G7">
@@ -337,7 +337,7 @@
       </c>
       <c s="4" t="inlineStr" r="I7">
         <is>
-          <t xml:space="preserve">06/17/2022</t>
+          <t xml:space="preserve">06/20/2022</t>
         </is>
       </c>
       <c s="3" t="inlineStr" r="L7">
@@ -454,7 +454,7 @@
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9 ©2011-2022 MNX Global Logistics. All rights reserved. 
-&amp;"-,Regular"6/17/2022 1:47 AM &amp;C&amp;"Arial,Regular"&amp;9 *Data provided should be considered CONFIDENTIAL and PROPRIETARY* 
+&amp;"-,Regular"6/19/2022 9:49 PM &amp;C&amp;"Arial,Regular"&amp;9 *Data provided should be considered CONFIDENTIAL and PROPRIETARY* 
 &amp;"-,Regular"Print User : automation &amp;R&amp;"Arial,Regular"&amp;9Page </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>

--- a/NetAgent/src/main/resources/TransactionReportbyDateRange_NA.xlsx
+++ b/NetAgent/src/main/resources/TransactionReportbyDateRange_NA.xlsx
@@ -327,7 +327,7 @@
       </c>
       <c s="4" t="inlineStr" r="D7">
         <is>
-          <t xml:space="preserve">06/10/2022</t>
+          <t xml:space="preserve">06/11/2022</t>
         </is>
       </c>
       <c s="3" t="inlineStr" r="G7">
@@ -337,7 +337,7 @@
       </c>
       <c s="4" t="inlineStr" r="I7">
         <is>
-          <t xml:space="preserve">06/20/2022</t>
+          <t xml:space="preserve">06/21/2022</t>
         </is>
       </c>
       <c s="3" t="inlineStr" r="L7">
@@ -454,8 +454,8 @@
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9 ©2011-2022 MNX Global Logistics. All rights reserved. 
-&amp;"-,Regular"6/19/2022 9:49 PM &amp;C&amp;"Arial,Regular"&amp;9 *Data provided should be considered CONFIDENTIAL and PROPRIETARY* 
-&amp;"-,Regular"Print User : automation &amp;R&amp;"Arial,Regular"&amp;9Page </oddFooter>
+&amp;"-,Regular"6/21/2022 12:46 AM &amp;C&amp;"Arial,Regular"&amp;9 *Data provided should be considered CONFIDENTIAL and PROPRIETARY* 
+&amp;"-,Regular"Print User : automation &amp;R&amp;"Arial,Regular"&amp;9Page</oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>
 </worksheet>
